--- a/storage/30-04-2024/VENTE DU JOUR DETAIL.xlsx
+++ b/storage/30-04-2024/VENTE DU JOUR DETAIL.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,23 +1208,302 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>MERC0001</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>MERGUEZ CONGELE</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>14160</v>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MERC0001</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>MERGUEZ CONGELE</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>11700</v>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MERL0001</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAMB MERGUEZ / MERGUEZ D'AGNEAU </t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>60880</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>20090.4</v>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>SACHET_0</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>PLASTIC BAGS</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>BAF008</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>RIBEYE / ENTRECOTE</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>55510</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>102304.93</v>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>BAF008</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>RIBEYE / ENTRECOTE</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>55510</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>30363.97</v>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>LAML0001</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>LAMB LEG CHOPS / GIGOT TRANCHE</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>61950</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>23417.1</v>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>LAML0001</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>LAMB LEG CHOPS / GIGOT TRANCHE</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>61950</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>19204.5</v>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>FOICG001</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>FOIE CONGELE</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>5110</v>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>TOTAUX</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n">
-        <v>9.472</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>1050667.5</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>407313.75</v>
-      </c>
-      <c r="G25" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="5" t="n">
+        <v>15.034</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1424467.5</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>634164.65</v>
+      </c>
+      <c r="G34" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
